--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna4-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna4-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Efna4</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.828516</v>
+        <v>0.3893783333333333</v>
       </c>
       <c r="H2">
-        <v>2.485548</v>
+        <v>1.168135</v>
       </c>
       <c r="I2">
-        <v>0.4625620436231038</v>
+        <v>0.2294878876126519</v>
       </c>
       <c r="J2">
-        <v>0.4821955800271095</v>
+        <v>0.2521981668521232</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,10 +558,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.617649</v>
+        <v>0.0237255</v>
       </c>
       <c r="N2">
-        <v>1.235298</v>
+        <v>0.047451</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.5117320788840001</v>
+        <v>0.009238195647499999</v>
       </c>
       <c r="R2">
-        <v>3.070392473304</v>
+        <v>0.055429173885</v>
       </c>
       <c r="S2">
-        <v>0.4625620436231038</v>
+        <v>0.2294878876126519</v>
       </c>
       <c r="T2">
-        <v>0.4821955800271095</v>
+        <v>0.2521981668521232</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +587,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,10 +608,10 @@
         <v>2.231519</v>
       </c>
       <c r="I3">
-        <v>0.4152870872032183</v>
+        <v>0.4383967447919097</v>
       </c>
       <c r="J3">
-        <v>0.4329140288365043</v>
+        <v>0.4817807882613594</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,10 +620,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.617649</v>
+        <v>0.0237255</v>
       </c>
       <c r="N3">
-        <v>1.235298</v>
+        <v>0.047451</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.459431826277</v>
+        <v>0.0176479680115</v>
       </c>
       <c r="R3">
-        <v>2.756590957662</v>
+        <v>0.105887808069</v>
       </c>
       <c r="S3">
-        <v>0.4152870872032183</v>
+        <v>0.4383967447919097</v>
       </c>
       <c r="T3">
-        <v>0.4329140288365043</v>
+        <v>0.4817807882613594</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +649,31 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.21879</v>
+        <v>0.08827633333333333</v>
       </c>
       <c r="H4">
-        <v>0.43758</v>
+        <v>0.264829</v>
       </c>
       <c r="I4">
-        <v>0.1221508691736779</v>
+        <v>0.05202741788283973</v>
       </c>
       <c r="J4">
-        <v>0.08489039113638626</v>
+        <v>0.05717608694995093</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,10 +682,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.617649</v>
+        <v>0.0237255</v>
       </c>
       <c r="N4">
-        <v>1.235298</v>
+        <v>0.047451</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +694,140 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.13513542471</v>
+        <v>0.0020944001465</v>
       </c>
       <c r="R4">
-        <v>0.54054169884</v>
+        <v>0.012566400879</v>
       </c>
       <c r="S4">
-        <v>0.1221508691736779</v>
+        <v>0.05202741788283973</v>
       </c>
       <c r="T4">
-        <v>0.08489039113638626</v>
+        <v>0.05717608694995093</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.4583675</v>
+      </c>
+      <c r="H5">
+        <v>0.9167350000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.2701480291026951</v>
+      </c>
+      <c r="J5">
+        <v>0.1979213759447163</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.0237255</v>
+      </c>
+      <c r="N5">
+        <v>0.047451</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0.01087499812125</v>
+      </c>
+      <c r="R5">
+        <v>0.04349999248500001</v>
+      </c>
+      <c r="S5">
+        <v>0.2701480291026951</v>
+      </c>
+      <c r="T5">
+        <v>0.1979213759447163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.01686533333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.050596</v>
+      </c>
+      <c r="I6">
+        <v>0.009939920609903594</v>
+      </c>
+      <c r="J6">
+        <v>0.01092358199185028</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.0237255</v>
+      </c>
+      <c r="N6">
+        <v>0.047451</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0.000400138466</v>
+      </c>
+      <c r="R6">
+        <v>0.002400830796</v>
+      </c>
+      <c r="S6">
+        <v>0.009939920609903594</v>
+      </c>
+      <c r="T6">
+        <v>0.01092358199185028</v>
       </c>
     </row>
   </sheetData>
